--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441681.9620213131</v>
+        <v>438980.7453698562</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.20115868761653</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.79707057279508</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>82.933878756352</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81.34721437418888</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.7650187107623</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.0757096957229</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>378.4956271572917</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.687727815431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>97.84123035967794</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713678</v>
       </c>
       <c r="S6" t="n">
-        <v>13.87113989472324</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>134.0634193398145</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.7704271215218</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>272.3253450496797</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>159.2508239713361</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>143.5056501025301</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>271.3171111651334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108338</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530795</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>136.7254352278167</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905246</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>195.4583860313225</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.733841663481</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419834258</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016407</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.05096575280883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428544</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890339</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833717</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>109.8058856274578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>216.0569236206397</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>211.898668570764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>19.72264368952197</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>31.39650288673346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>25.52471385612625</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705755</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.13627195705809</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
+        <v>300.4385797407429</v>
+      </c>
+      <c r="G2" t="n">
         <v>287.4747669672984</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,52 +4328,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>814.482942342551</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U2" t="n">
-        <v>560.7979242836798</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V2" t="n">
-        <v>560.7979242836798</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="W2" t="n">
-        <v>560.7979242836798</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.0874629353336</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6344336542066</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>224.7000239929554</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>906.219221609864</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>839.7105578442523</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>755.9389631408665</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>548.0874629353336</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.0874629353336</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.5795646275102</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5795646275102</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4492,46 +4492,46 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>972.686616597753</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>972.686616597753</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T4" t="n">
-        <v>747.2175803557673</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="U4" t="n">
-        <v>747.2175803557673</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>747.2175803557673</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>747.2175803557673</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>519.2280294577499</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.2280294577499</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1147.187549831996</v>
+        <v>824.6297868372183</v>
       </c>
       <c r="C5" t="n">
-        <v>778.2250328915841</v>
+        <v>824.6297868372183</v>
       </c>
       <c r="D5" t="n">
-        <v>419.9593342848336</v>
+        <v>466.3640882304678</v>
       </c>
       <c r="E5" t="n">
-        <v>419.9593342848336</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
-        <v>413.0138335356301</v>
+        <v>356.3118100108371</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523448</v>
+        <v>343.7673746797564</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275135</v>
+        <v>93.76641159275175</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924556</v>
+        <v>239.0325989245571</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825633</v>
+        <v>456.149911482565</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748857</v>
+        <v>729.4041931748884</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202379</v>
+        <v>1011.693823202383</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798413</v>
+        <v>1264.916654798417</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.53548218941</v>
+        <v>1446.535482189415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261724</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261724</v>
+        <v>1177.398442107332</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261724</v>
+        <v>1177.398442107332</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261724</v>
+        <v>1177.398442107332</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.750911261724</v>
+        <v>824.6297868372183</v>
       </c>
       <c r="X5" t="n">
-        <v>1534.750911261724</v>
+        <v>824.6297868372183</v>
       </c>
       <c r="Y5" t="n">
-        <v>1147.187549831996</v>
+        <v>824.6297868372183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.6393309411184</v>
+        <v>499.8548915312062</v>
       </c>
       <c r="C6" t="n">
-        <v>473.6393309411184</v>
+        <v>325.4018622500791</v>
       </c>
       <c r="D6" t="n">
-        <v>473.6393309411184</v>
+        <v>325.4018622500791</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356629</v>
+        <v>166.1644072446236</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625479</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523448</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523448</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="J6" t="n">
-        <v>166.1645716037777</v>
+        <v>49.44206107563455</v>
       </c>
       <c r="K6" t="n">
-        <v>276.361078545088</v>
+        <v>159.6385680169454</v>
       </c>
       <c r="L6" t="n">
-        <v>470.85642237644</v>
+        <v>354.1339118482979</v>
       </c>
       <c r="M6" t="n">
-        <v>717.1801830471859</v>
+        <v>600.4576725190444</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584463</v>
+        <v>980.3085230563224</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749981</v>
+        <v>1202.571970221842</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948669</v>
+        <v>1478.347425948674</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261724</v>
+        <v>1530.346686757978</v>
       </c>
       <c r="S6" t="n">
-        <v>1520.739658842812</v>
+        <v>1385.878273152073</v>
       </c>
       <c r="T6" t="n">
-        <v>1520.739658842812</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="U6" t="n">
-        <v>1292.618575163416</v>
+        <v>961.8525470243617</v>
       </c>
       <c r="V6" t="n">
-        <v>1057.466466931673</v>
+        <v>961.8525470243617</v>
       </c>
       <c r="W6" t="n">
-        <v>1057.466466931673</v>
+        <v>707.6151902961601</v>
       </c>
       <c r="X6" t="n">
-        <v>849.6149667261404</v>
+        <v>707.6151902961601</v>
       </c>
       <c r="Y6" t="n">
-        <v>641.8546679611865</v>
+        <v>499.8548915312062</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.1281321809694</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="C7" t="n">
-        <v>646.1281321809694</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="D7" t="n">
-        <v>646.1281321809694</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="E7" t="n">
-        <v>498.2150385985763</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="F7" t="n">
-        <v>351.3250911006659</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387296</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523448</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223267</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830389</v>
+        <v>375.1387655830396</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388163</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974838</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1113.866490402743</v>
       </c>
       <c r="S7" t="n">
-        <v>1098.782941202442</v>
+        <v>910.3578444371327</v>
       </c>
       <c r="T7" t="n">
-        <v>874.1176830789867</v>
+        <v>910.3578444371327</v>
       </c>
       <c r="U7" t="n">
-        <v>874.1176830789867</v>
+        <v>621.2179736135042</v>
       </c>
       <c r="V7" t="n">
-        <v>874.1176830789867</v>
+        <v>366.5334854076174</v>
       </c>
       <c r="W7" t="n">
-        <v>874.1176830789867</v>
+        <v>258.6845691232519</v>
       </c>
       <c r="X7" t="n">
-        <v>646.1281321809694</v>
+        <v>30.69501822523458</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.1281321809694</v>
+        <v>30.69501822523458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.292347699871</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1020.544708344027</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>634.7564557457824</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>223.7705509561749</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>212.1062047208678</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810658</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4863,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0146769637281</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.276695922948</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.7605118677428</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>750.7605118677428</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1294.86217011059</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.177681904703</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>750.7605118677428</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>750.7605118677428</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>750.7605118677428</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1564.201296358098</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1195.238779417687</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.238779417687</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>809.4505268194423</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455921</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656951</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484039</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535292</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464057</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796032</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3876.883295796032</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3672.904689377397</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3419.410747498925</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>3088.347860155354</v>
       </c>
       <c r="W11" t="n">
-        <v>2714.406226659112</v>
+        <v>2735.57920488524</v>
       </c>
       <c r="X11" t="n">
-        <v>2340.940468398032</v>
+        <v>2362.11344662416</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.80113642222</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.841091987041</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.7769964046651</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>676.7125526339536</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>1184.669118590482</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1720.478428291691</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635254</v>
+        <v>2188.419472624214</v>
       </c>
       <c r="P12" t="n">
-        <v>2480.475928880028</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.1284280680148</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="C13" t="n">
-        <v>611.1284280680148</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="D13" t="n">
-        <v>461.0117886556791</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="E13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="F13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360024</v>
+        <v>1647.736286893318</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309475</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1349.327728146523</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1059.910558109562</v>
+        <v>814.5429355999217</v>
       </c>
       <c r="X13" t="n">
-        <v>831.921007211545</v>
+        <v>586.5533847019044</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.1284280680148</v>
+        <v>365.7608055583743</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263525</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121682</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121633</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138401</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038341</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,16 +6251,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6269,7 +6269,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784059</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504992</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381635</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557704</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>961.4446166151479</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1363.885660588918</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892234</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768877</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944946</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>119.5992022965843</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>119.5992022965843</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>119.5992022965843</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,13 +7096,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041568</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,40 +7640,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637011</v>
+        <v>34.43939438636977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9015257860035</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>113.7363514798528</v>
+        <v>113.7363514798535</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>117.901525786004</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>45.4467610113083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374731</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184569</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615218</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>77.92385755227963</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349702</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>43.10654495412055</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>56.6792572925055</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788128</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.533687599286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409392691</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.459688448232</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>176.3785887617864</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>70.46607471595132</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393011</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>40.23897475306401</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>232.414999634306</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>135.8503182118944</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>55.74112246243928</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891663</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.23897475306357</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>943810.3898900527</v>
+        <v>943810.389890052</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855342</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.891030338</v>
+        <v>347979.8910303376</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911927</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657069</v>
+        <v>132804.2190657087</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929377</v>
+        <v>265413.0723929363</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545764</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.26877043</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417427</v>
+        <v>30877.42926417457</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049562</v>
+        <v>65018.34502049536</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273091</v>
+        <v>81897.40371273052</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202388</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947649</v>
+        <v>214511.7974947646</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26427,37 +26427,37 @@
         <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="J4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678122</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>10557.08828678123</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678118</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678117</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667494</v>
+        <v>72593.65038667504</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.4850673856</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603473.6090847867</v>
+        <v>-603473.6090847865</v>
       </c>
       <c r="C6" t="n">
-        <v>-29914.82626161264</v>
+        <v>-29914.82626161394</v>
       </c>
       <c r="D6" t="n">
-        <v>-107490.5512695889</v>
+        <v>-107490.5512695875</v>
       </c>
       <c r="E6" t="n">
-        <v>-61186.42111876015</v>
+        <v>-61407.55243273378</v>
       </c>
       <c r="F6" t="n">
-        <v>82406.7479716362</v>
+        <v>82372.01004619886</v>
       </c>
       <c r="G6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="H6" t="n">
-        <v>271715.0167420645</v>
+        <v>271680.2788166291</v>
       </c>
       <c r="I6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="J6" t="n">
-        <v>202715.8623229505</v>
+        <v>202681.1243975147</v>
       </c>
       <c r="K6" t="n">
-        <v>240837.5874778903</v>
+        <v>240802.8495524544</v>
       </c>
       <c r="L6" t="n">
-        <v>206696.6717215688</v>
+        <v>206661.9337961335</v>
       </c>
       <c r="M6" t="n">
-        <v>189817.6130293338</v>
+        <v>189782.8751038983</v>
       </c>
       <c r="N6" t="n">
-        <v>221875.442610041</v>
+        <v>221840.704684605</v>
       </c>
       <c r="O6" t="n">
-        <v>271715.0167420647</v>
+        <v>271680.2788166289</v>
       </c>
       <c r="P6" t="n">
-        <v>271715.0167420646</v>
+        <v>271680.2788166288</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.113816799854797e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.113816799854797e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695747</v>
+        <v>717.331951169576</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815431</v>
+        <v>383.6877278154323</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.220823949008</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.113816799854797e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000965</v>
+        <v>103.2769374000979</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479644</v>
+        <v>216.7329409479632</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974105</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267243</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139249</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846077</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506406</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139251</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846077</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.113816799854797e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139249</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846077</v>
+        <v>256.8971042846065</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506406</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>127.0885569156067</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.162135560564</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.0574169307595</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>168.7611044045676</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15738850947506</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>161.4936117919152</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.8546603765388</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>33.92336382047824</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863692</v>
+        <v>99.30025118863674</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622583</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>47.22798203370594</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951732</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713849</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>129.1525895751226</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643564</v>
+        <v>1.905236112643408</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>67.41014016614017</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.7525712150692</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.4084966138009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>141.7677285910693</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>142.7215040186705</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2.957318858763455e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.263949110987596e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-2.333157718891613e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579057</v>
+        <v>29.53316922579062</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756933</v>
+        <v>244.7543826756937</v>
       </c>
       <c r="K5" t="n">
-        <v>366.823373602359</v>
+        <v>366.8233736023596</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952477</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791139</v>
+        <v>506.3606591791148</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284035</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.878849397479</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562773</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868886</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.7133742202078</v>
+        <v>65.71337422020791</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316419</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189776</v>
+        <v>53.12316808189785</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453796</v>
+        <v>249.15104194538</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438661</v>
+        <v>335.0143230438666</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874182</v>
+        <v>390.9459133874188</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189115</v>
+        <v>401.2930884189121</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348672</v>
+        <v>367.1047769348678</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190661</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392928</v>
+        <v>95.79765189392946</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.659441633992</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989047</v>
+        <v>6.219132670989057</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572062</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402921</v>
+        <v>91.45394400402937</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773275</v>
+        <v>202.7697513773278</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960659</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565107</v>
+        <v>58.16268574565117</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101761</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060665</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864676</v>
+        <v>0.07055724109864689</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869141</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639235</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285602</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203914</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975122</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544651</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954554</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180162</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956799</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620353</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825966</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858571</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469204</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598378</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>346.5700931427918</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821475</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340501</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.263965992447</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383442</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.804420539515</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092166</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.1969510279845</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100539</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770061</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531026</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811703</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493537</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377478</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>403.8524967138027</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,22 +33266,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>483.3274636075158</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900699</v>
+        <v>63.70847814900742</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.733522557379</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252597</v>
+        <v>219.3104167252605</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518412</v>
+        <v>276.0144259518421</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318125</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757914</v>
+        <v>255.7806379757922</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010071</v>
+        <v>183.4533610010078</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243913</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>136.8379327055992</v>
+        <v>18.93640691959592</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710206</v>
+        <v>111.309602971021</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639919</v>
+        <v>196.4599432639924</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794654005</v>
       </c>
       <c r="N6" t="n">
-        <v>383.687727815431</v>
+        <v>383.6877278154323</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904234</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047353</v>
+        <v>278.5610663907398</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793419</v>
+        <v>56.97321748793453</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491139</v>
+        <v>22.15508137491159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>343.1271216491584</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>451.8731981657878</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937051</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525317</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844779</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681827</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739931</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067658</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081471</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553057</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854788</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>208.0157133629177</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507168</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480025</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.82264645349349</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655348</v>
+        <v>14.87641069655336</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186267</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070196</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.90893007037</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388467</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323312</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946633</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776303</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>272.5107846304694</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295228</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>340.7312191630714</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
